--- a/backend/temp_datasheet.xlsx
+++ b/backend/temp_datasheet.xlsx
@@ -25,7 +25,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Italy</t>
   </si>
   <si>
     <t>Political Power</t>
